--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peizh\Dropbox\Documents\LeetCode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="19065" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Problems" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="324">
   <si>
     <t>Title</t>
   </si>
@@ -553,6 +553,444 @@
   </si>
   <si>
     <t>Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation </t>
+  </si>
+  <si>
+    <t>Bulb Switcher</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings </t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal </t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication </t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable </t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>Additive Number</t>
+  </si>
+  <si>
+    <t>Number of Islands II </t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels </t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Best Meeting Point </t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Flip Game II </t>
+  </si>
+  <si>
+    <t>Flip Game </t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Word Pattern II </t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Walls and Gates </t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST </t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator </t>
+  </si>
+  <si>
+    <t>Wiggle Sort </t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Find the Celebrity </t>
+  </si>
+  <si>
+    <t>Paint Fence </t>
+  </si>
+  <si>
+    <t>H-Index II</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Integer to English Words</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II </t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings </t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value </t>
+  </si>
+  <si>
+    <t>Alien Dictionary </t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation II </t>
+  </si>
+  <si>
+    <t>Palindrome Permutation </t>
+  </si>
+  <si>
+    <t>Paint House II </t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree </t>
+  </si>
+  <si>
+    <t>Single Number III</t>
+  </si>
+  <si>
+    <t>3Sum Smaller </t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Paint House </t>
+  </si>
+  <si>
+    <t>Verify Preorder Sequence in Binary Search Tree </t>
+  </si>
+  <si>
+    <t>Factor Combinations </t>
+  </si>
+  <si>
+    <t>Meeting Rooms II </t>
+  </si>
+  <si>
+    <t>Meeting Rooms </t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector </t>
+  </si>
+  <si>
+    <t>Count Univalue Subtrees </t>
+  </si>
+  <si>
+    <t>Group Shifted Strings </t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number III </t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II </t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number </t>
+  </si>
+  <si>
+    <t>Shortest Word Distance III </t>
+  </si>
+  <si>
+    <t>Shortest Word Distance II </t>
+  </si>
+  <si>
+    <t>Shortest Word Distance </t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Number of Digit One</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Rectangle Area</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>Trips and Users</t>
+  </si>
+  <si>
+    <t>Rising Temperature</t>
+  </si>
+  <si>
+    <t>Delete Duplicate Emails</t>
+  </si>
+  <si>
+    <t>Department Top Three Salaries</t>
+  </si>
+  <si>
+    <t>Department Highest Salary</t>
+  </si>
+  <si>
+    <t>Customers Who Never Order</t>
+  </si>
+  <si>
+    <t>Duplicate Emails</t>
+  </si>
+  <si>
+    <t>Employees Earning More Than Their Managers</t>
+  </si>
+  <si>
+    <t>Consecutive Numbers</t>
+  </si>
+  <si>
+    <t>Rank Scores</t>
+  </si>
+  <si>
+    <t>Nth Highest Salary</t>
+  </si>
+  <si>
+    <t>Second Highest Salary</t>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+  </si>
+  <si>
+    <t>Tenth Line</t>
+  </si>
+  <si>
+    <t>Transpose File</t>
+  </si>
+  <si>
+    <t>Valid Phone Numbers</t>
+  </si>
+  <si>
+    <t>Word Frequency</t>
   </si>
 </sst>
 </file>
@@ -596,18 +1034,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -656,7 +1110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,7 +1145,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -900,1468 +1354,3180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B100" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B104" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B106" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B107" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="B108" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="B113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="B117" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="B118" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="B119" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="B120" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="B121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="B122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="B123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="B124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="B125" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="B126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="B127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="B128" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="B129" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B130" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="B131" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="B132" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="B133" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="B134" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="B135" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="B136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="B137" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="B138" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="B139" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B140" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="B141" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="B142" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="B143" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="B144" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="B145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="B146" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="B147" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="B148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B149" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="B150" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B151" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="B152" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B153" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="B154" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="B155" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="B156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B157" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="B158" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B159" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B160" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B161" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="B162" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B163" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B164" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B165" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B166" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B167" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="B168" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B169" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="B170" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="B171" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="B172" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B173" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="B174" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="B175" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="B176" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B180" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="C187" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B177" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>187</v>
-      </c>
-      <c r="B178" t="s">
-        <v>178</v>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C321">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>